--- a/ha-resource/02_db/DB.xlsx
+++ b/ha-resource/02_db/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBF4E5B-0317-47D6-97A1-12DEA73D2883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20416B8F-E1EC-4D33-8115-3667C392381F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1755" windowWidth="29040" windowHeight="16440" tabRatio="361" activeTab="1" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$65</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -900,11 +901,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -920,7 +921,8 @@
     <col min="9" max="9" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="4.625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -2294,7 +2296,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2302,11 +2304,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8226E27-9270-4524-A864-822221B9E79E}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/ha-resource/02_db/DB.xlsx
+++ b/ha-resource/02_db/DB.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20416B8F-E1EC-4D33-8115-3667C392381F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12B703D-3A13-4490-B91E-531ECFA8D4BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="390" yWindow="2415" windowWidth="26355" windowHeight="14400" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$66</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$66</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="88">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -489,10 +489,6 @@
   </si>
   <si>
     <t>108</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -500,7 +496,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +516,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -569,7 +581,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,6 +596,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -899,13 +917,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -985,9 +1003,7 @@
         <v>51</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
@@ -1014,9 +1030,7 @@
         <v>86</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
@@ -1041,9 +1055,7 @@
         <v>53</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
@@ -1066,9 +1078,7 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
@@ -1093,9 +1103,7 @@
         <v>54</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
@@ -1120,9 +1128,7 @@
         <v>55</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
@@ -1145,9 +1151,7 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
@@ -1170,9 +1174,7 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
@@ -1199,9 +1201,7 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
@@ -1226,9 +1226,7 @@
         <v>51</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
@@ -1253,9 +1251,7 @@
         <v>56</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
@@ -1280,9 +1276,7 @@
         <v>52</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
@@ -1307,9 +1301,7 @@
         <v>52</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
@@ -1334,9 +1326,7 @@
         <v>52</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
@@ -1361,9 +1351,7 @@
         <v>57</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
@@ -1386,33 +1374,33 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2" t="s">
-        <v>88</v>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1426,48 +1414,40 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>79</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
@@ -1476,25 +1456,25 @@
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
@@ -1507,10 +1487,10 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>81</v>
@@ -1519,9 +1499,7 @@
         <v>53</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
@@ -1534,10 +1512,10 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>81</v>
@@ -1546,9 +1524,7 @@
         <v>53</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
@@ -1561,10 +1537,10 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>81</v>
@@ -1573,9 +1549,7 @@
         <v>53</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
@@ -1588,19 +1562,19 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
@@ -1613,48 +1587,40 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>79</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
@@ -1663,27 +1629,25 @@
       <c r="B28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
@@ -1698,21 +1662,19 @@
         <v>84</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
@@ -1723,21 +1685,23 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
@@ -1750,48 +1714,40 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>79</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
@@ -1800,23 +1756,25 @@
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
@@ -1829,19 +1787,17 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
@@ -1854,21 +1810,17 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
@@ -1881,19 +1833,19 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I36" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
@@ -1906,29 +1858,37 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>79</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -2284,14 +2244,27 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K65" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:K66" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H65" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H66" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E65" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E66" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ha-resource/02_db/DB.xlsx
+++ b/ha-resource/02_db/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12B703D-3A13-4490-B91E-531ECFA8D4BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13709ED9-AC7B-4578-9B5D-70FF825F26FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="2415" windowWidth="26355" windowHeight="14400" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="89">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -426,69 +426,75 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>範囲下限</t>
+  </si>
+  <si>
+    <t>RANGE_MIN</t>
+  </si>
+  <si>
+    <t>範囲上限</t>
+  </si>
+  <si>
+    <t>RANGE_MAX</t>
+  </si>
+  <si>
+    <t>肥満度ステータス</t>
+  </si>
+  <si>
+    <t>OVER_WEIGHT_STATUS</t>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+  </si>
+  <si>
+    <t>REG_DATE</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>CRYPT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>BMI範囲ID</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>BMI_RANGE_ID</t>
-  </si>
-  <si>
-    <t>範囲下限</t>
-  </si>
-  <si>
-    <t>RANGE_MIN</t>
-  </si>
-  <si>
-    <t>範囲上限</t>
-  </si>
-  <si>
-    <t>RANGE_MAX</t>
-  </si>
-  <si>
-    <t>肥満度ステータス</t>
-  </si>
-  <si>
-    <t>OVER_WEIGHT_STATUS</t>
-  </si>
-  <si>
-    <t>更新日時</t>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-  </si>
-  <si>
-    <t>登録日時</t>
-  </si>
-  <si>
-    <t>REG_DATE</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>INT</t>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>CRYPT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>44</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>108</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -920,10 +926,10 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -957,7 +963,7 @@
         <v>25</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>7</v>
@@ -986,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -997,7 +1003,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>51</v>
@@ -1015,7 +1021,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
@@ -1024,10 +1030,10 @@
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1049,7 +1055,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>53</v>
@@ -1074,7 +1080,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1097,7 +1103,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>54</v>
@@ -1122,7 +1128,7 @@
         <v>18</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>55</v>
@@ -1147,7 +1153,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1170,7 +1176,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1184,10 +1190,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
@@ -1197,7 +1203,7 @@
         <v>23</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1220,7 +1226,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>51</v>
@@ -1245,7 +1251,7 @@
         <v>26</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>56</v>
@@ -1270,7 +1276,7 @@
         <v>27</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>52</v>
@@ -1295,7 +1301,7 @@
         <v>28</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>52</v>
@@ -1320,7 +1326,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>52</v>
@@ -1345,7 +1351,7 @@
         <v>61</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>57</v>
@@ -1370,7 +1376,7 @@
         <v>64</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1387,17 +1393,15 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5" t="s">
         <v>53</v>
@@ -1420,7 +1424,7 @@
         <v>19</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1443,7 +1447,7 @@
         <v>20</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1457,7 +1461,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1468,7 +1472,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>51</v>
@@ -1493,7 +1497,7 @@
         <v>35</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>53</v>
@@ -1518,7 +1522,7 @@
         <v>36</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>53</v>
@@ -1543,7 +1547,7 @@
         <v>37</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>53</v>
@@ -1568,7 +1572,7 @@
         <v>38</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>53</v>
@@ -1593,7 +1597,7 @@
         <v>19</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1616,7 +1620,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1630,7 +1634,7 @@
         <v>43</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1641,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>51</v>
@@ -1659,7 +1663,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>45</v>
@@ -1668,10 +1672,10 @@
         <v>47</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1686,7 +1690,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>46</v>
@@ -1695,10 +1699,10 @@
         <v>48</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -1720,7 +1724,7 @@
         <v>19</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1743,7 +1747,7 @@
         <v>20</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1757,20 +1761,20 @@
         <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1787,13 +1791,13 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -1810,13 +1814,13 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1833,13 +1837,13 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>57</v>
@@ -1858,13 +1862,13 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -1881,13 +1885,13 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -2313,7 +2317,7 @@
         <v>25</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>7</v>

--- a/ha-resource/02_db/DB.xlsx
+++ b/ha-resource/02_db/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13709ED9-AC7B-4578-9B5D-70FF825F26FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398DB87E-E398-4254-8782-FAB9DC5461F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="2415" windowWidth="26355" windowHeight="14400" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="720" yWindow="1050" windowWidth="26355" windowHeight="14400" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="89">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -502,7 +502,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,15 +529,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -606,7 +597,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -925,11 +916,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1403,9 +1394,7 @@
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">

--- a/ha-resource/02_db/DB.xlsx
+++ b/ha-resource/02_db/DB.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398DB87E-E398-4254-8782-FAB9DC5461F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830D9A84-18EC-4855-8E71-6F30DC29268B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1050" windowWidth="26355" windowHeight="14400" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$66</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$66</definedName>
   </definedNames>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="90">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -495,6 +495,10 @@
   </si>
   <si>
     <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not NULL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -502,7 +506,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +533,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -578,7 +591,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -599,6 +612,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,13 +930,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -929,18 +945,17 @@
     <col min="2" max="2" width="29.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>59</v>
       </c>
@@ -956,26 +971,29 @@
       <c r="E1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -988,21 +1006,24 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1015,21 +1036,24 @@
         <v>82</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1040,21 +1064,24 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1065,19 +1092,22 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1087,22 +1117,23 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -1112,22 +1143,23 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -1137,20 +1169,21 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1160,20 +1193,21 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1188,19 +1222,22 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1211,21 +1248,24 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1235,22 +1275,23 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1260,22 +1301,23 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1285,22 +1327,23 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1310,22 +1353,23 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1335,22 +1379,23 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1360,20 +1405,21 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -1383,20 +1429,21 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1406,20 +1453,21 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1429,20 +1477,21 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -1455,21 +1504,24 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -1479,22 +1531,23 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -1504,22 +1557,23 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
@@ -1529,22 +1583,23 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
@@ -1554,22 +1609,23 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -1579,20 +1635,21 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -1602,20 +1659,21 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -1628,21 +1686,24 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
@@ -1655,21 +1716,24 @@
         <v>82</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
@@ -1682,21 +1746,24 @@
         <v>82</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -1706,20 +1773,21 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>44</v>
       </c>
@@ -1729,20 +1797,21 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -1757,19 +1826,22 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
@@ -1779,20 +1851,21 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -1802,20 +1875,21 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
@@ -1825,22 +1899,23 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>65</v>
       </c>
@@ -1850,20 +1925,21 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>65</v>
       </c>
@@ -1873,20 +1949,21 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1898,8 +1975,9 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1911,8 +1989,9 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1924,8 +2003,9 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1937,8 +2017,9 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1950,8 +2031,9 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1963,8 +2045,9 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1976,8 +2059,9 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1989,8 +2073,9 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2002,8 +2087,9 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2015,8 +2101,9 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2028,8 +2115,9 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2041,8 +2129,9 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2054,8 +2143,9 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2067,8 +2157,9 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2080,8 +2171,9 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2093,8 +2185,9 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2106,8 +2199,9 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2119,8 +2213,9 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2132,8 +2227,9 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2145,8 +2241,9 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2158,8 +2255,9 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2171,8 +2269,9 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2184,8 +2283,9 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2197,8 +2297,9 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2210,8 +2311,9 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2223,8 +2325,9 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2236,8 +2339,9 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2249,20 +2353,21 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K66" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L66" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H66" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I66" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E66" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F66" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="34" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ha-resource/02_db/DB.xlsx
+++ b/ha-resource/02_db/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830D9A84-18EC-4855-8E71-6F30DC29268B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E331521-5DB0-4610-8BD8-553DF14515D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="91">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -170,10 +170,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HEALTH_INFO_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>健康情報ID</t>
     <rPh sb="0" eb="2">
       <t>ケンコウ</t>
@@ -499,6 +495,14 @@
   </si>
   <si>
     <t>Not NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_HEALTH_INFO_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_BMI_RANGE_ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -933,10 +937,10 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -957,22 +961,22 @@
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>7</v>
@@ -981,16 +985,16 @@
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -1001,12 +1005,12 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -1015,10 +1019,10 @@
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1033,10 +1037,10 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
@@ -1045,10 +1049,10 @@
         <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -1064,7 +1068,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
@@ -1073,10 +1077,10 @@
         <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1092,7 +1096,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -1101,7 +1105,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1125,10 +1129,10 @@
         <v>17</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1151,10 +1155,10 @@
         <v>18</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1177,7 +1181,7 @@
         <v>19</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1201,7 +1205,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1215,23 +1219,23 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1248,7 +1252,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>4</v>
@@ -1257,10 +1261,10 @@
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1277,16 +1281,16 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1303,16 +1307,16 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1329,16 +1333,16 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1355,16 +1359,16 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1381,16 +1385,16 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1407,13 +1411,13 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="I17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1431,13 +1435,13 @@
       <c r="E18" s="5"/>
       <c r="F18" s="2"/>
       <c r="G18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1461,7 +1465,7 @@
         <v>19</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1485,7 +1489,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1493,18 +1497,18 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>4</v>
@@ -1513,124 +1517,124 @@
         <v>3</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1643,7 +1647,7 @@
         <v>19</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1651,10 +1655,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1667,7 +1671,7 @@
         <v>20</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1675,18 +1679,18 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>4</v>
@@ -1695,80 +1699,80 @@
         <v>3</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1781,7 +1785,7 @@
         <v>19</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1789,10 +1793,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1805,7 +1809,7 @@
         <v>20</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -1813,29 +1817,29 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -1843,23 +1847,23 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="I34" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -1867,23 +1871,23 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="I35" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -1891,49 +1895,49 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="I36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="I37" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1941,23 +1945,23 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -2399,19 +2403,19 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>7</v>
@@ -2420,16 +2424,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">

--- a/ha-resource/02_db/DB.xlsx
+++ b/ha-resource/02_db/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E331521-5DB0-4610-8BD8-553DF14515D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5139DD0B-3772-4551-94DD-682137CFE494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="90">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -483,10 +483,6 @@
   </si>
   <si>
     <t>BMI範囲ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BMI_RANGE_ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -976,7 +972,7 @@
         <v>82</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>7</v>
@@ -1232,7 +1228,7 @@
         <v>23</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>77</v>
@@ -1437,11 +1433,11 @@
       <c r="G18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1836,10 +1832,10 @@
         <v>85</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>

--- a/ha-resource/02_db/DB.xlsx
+++ b/ha-resource/02_db/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5139DD0B-3772-4551-94DD-682137CFE494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F7BAB6-4561-4B30-9282-89409B8BC714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
@@ -478,10 +478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>108</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BMI範囲ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -499,6 +495,10 @@
   </si>
   <si>
     <t>SEQ_BMI_RANGE_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>128</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -933,7 +933,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -972,7 +972,7 @@
         <v>82</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>7</v>
@@ -1228,7 +1228,7 @@
         <v>23</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>77</v>
@@ -1431,13 +1431,13 @@
       <c r="E18" s="5"/>
       <c r="F18" s="2"/>
       <c r="G18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1728,7 +1728,7 @@
         <v>78</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1829,13 +1829,13 @@
         <v>81</v>
       </c>
       <c r="G33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>

--- a/ha-resource/02_db/DB.xlsx
+++ b/ha-resource/02_db/DB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F7BAB6-4561-4B30-9282-89409B8BC714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEE498B-8A4F-4867-8CD4-69D9A4DD756C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$65</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="88">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -297,15 +297,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メールパスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MAIL_ADDRESS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAIL_PASSWORD</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -474,10 +466,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>44</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BMI範囲ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -499,6 +487,16 @@
   </si>
   <si>
     <t>128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SHA-256でハッシュ化して保存</t>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホゾン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -930,13 +928,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -949,18 +947,18 @@
     <col min="7" max="7" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -969,10 +967,10 @@
         <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>7</v>
@@ -981,16 +979,16 @@
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -1001,12 +999,12 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -1015,10 +1013,10 @@
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1032,11 +1030,9 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
@@ -1045,12 +1041,14 @@
         <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -1064,7 +1062,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
@@ -1073,10 +1071,10 @@
         <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1092,7 +1090,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -1101,7 +1099,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1125,10 +1123,10 @@
         <v>17</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1151,10 +1149,10 @@
         <v>18</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1177,7 +1175,7 @@
         <v>19</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1201,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1215,23 +1213,23 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1248,7 +1246,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>4</v>
@@ -1257,10 +1255,10 @@
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1283,10 +1281,10 @@
         <v>25</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1309,10 +1307,10 @@
         <v>26</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1335,10 +1333,10 @@
         <v>27</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1361,10 +1359,10 @@
         <v>28</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1381,16 +1379,16 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1407,13 +1405,13 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1431,13 +1429,13 @@
       <c r="E18" s="5"/>
       <c r="F18" s="2"/>
       <c r="G18" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1461,7 +1459,7 @@
         <v>19</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1485,7 +1483,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1499,12 +1497,12 @@
         <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>4</v>
@@ -1513,10 +1511,10 @@
         <v>3</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1539,10 +1537,10 @@
         <v>34</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1565,10 +1563,10 @@
         <v>35</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1591,10 +1589,10 @@
         <v>36</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1617,10 +1615,10 @@
         <v>37</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1643,7 +1641,7 @@
         <v>19</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1667,7 +1665,7 @@
         <v>20</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1681,12 +1679,12 @@
         <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>4</v>
@@ -1695,10 +1693,10 @@
         <v>3</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1713,22 +1711,22 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1742,24 +1740,18 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
@@ -1775,13 +1767,13 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1789,23 +1781,29 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G32" s="2" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -1813,29 +1811,23 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="I33" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -1843,10 +1835,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1859,7 +1851,7 @@
         <v>67</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -1867,10 +1859,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1883,18 +1875,20 @@
         <v>69</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J35" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1907,20 +1901,18 @@
         <v>71</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1933,32 +1925,22 @@
         <v>73</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -2341,33 +2323,19 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L66" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L65" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I66" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I65" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F66" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F65" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="34" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="31" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2399,10 +2367,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -2411,7 +2379,7 @@
         <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>7</v>
@@ -2420,16 +2388,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">

--- a/ha-resource/02_db/DB.xlsx
+++ b/ha-resource/02_db/DB.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEE498B-8A4F-4867-8CD4-69D9A4DD756C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD088727-2B03-4D44-8918-2DA482DE7C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="10095" yWindow="3150" windowWidth="18195" windowHeight="13905" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
-    <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
+    <sheet name="BMI_RANGE_MT" sheetId="3" r:id="rId2"/>
+    <sheet name="TEMPLATE" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$65</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="102">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -497,6 +498,61 @@
     <rPh sb="15" eb="17">
       <t>ホゾン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/07/26 12:34:56</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>999</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -589,7 +645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -613,6 +669,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -934,7 +993,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2340,6 +2399,149 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D7121B-1215-48D4-A4D3-45D65E41B069}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="3.375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8226E27-9270-4524-A864-822221B9E79E}">
   <dimension ref="A1:K69"/>
   <sheetViews>

--- a/ha-resource/02_db/DB.xlsx
+++ b/ha-resource/02_db/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD088727-2B03-4D44-8918-2DA482DE7C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F9E9F9-9EE7-48EC-9117-C05F016BF1E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10095" yWindow="3150" windowWidth="18195" windowHeight="13905" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="102">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -445,9 +445,6 @@
     <t>REG_DATE</t>
   </si>
   <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
     <t>INT</t>
   </si>
   <si>
@@ -554,6 +551,9 @@
   <si>
     <t>999</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
   </si>
 </sst>
 </file>
@@ -989,11 +989,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1026,10 +1026,10 @@
         <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>7</v>
@@ -1058,12 +1058,12 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -1072,7 +1072,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>48</v>
@@ -1091,7 +1091,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
@@ -1100,13 +1100,13 @@
         <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L3" s="2"/>
     </row>
@@ -1121,7 +1121,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
@@ -1130,7 +1130,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>50</v>
@@ -1149,7 +1149,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -1158,7 +1158,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1182,7 +1182,7 @@
         <v>17</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>51</v>
@@ -1208,7 +1208,7 @@
         <v>18</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>52</v>
@@ -1226,7 +1226,9 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1234,7 +1236,7 @@
         <v>19</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1250,7 +1252,9 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1258,7 +1262,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1272,23 +1276,23 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1305,7 +1309,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>4</v>
@@ -1314,7 +1318,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>48</v>
@@ -1340,7 +1344,7 @@
         <v>25</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>53</v>
@@ -1366,7 +1370,7 @@
         <v>26</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>49</v>
@@ -1392,7 +1396,7 @@
         <v>27</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>49</v>
@@ -1418,7 +1422,7 @@
         <v>28</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>49</v>
@@ -1444,7 +1448,7 @@
         <v>58</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>54</v>
@@ -1470,7 +1474,7 @@
         <v>61</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1488,13 +1492,13 @@
       <c r="E18" s="5"/>
       <c r="F18" s="2"/>
       <c r="G18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1510,7 +1514,9 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1518,7 +1524,7 @@
         <v>19</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1534,7 +1540,9 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1542,7 +1550,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1556,12 +1564,12 @@
         <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>4</v>
@@ -1570,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>48</v>
@@ -1596,7 +1604,7 @@
         <v>34</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>50</v>
@@ -1622,7 +1630,7 @@
         <v>35</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>50</v>
@@ -1648,7 +1656,7 @@
         <v>36</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>50</v>
@@ -1674,7 +1682,7 @@
         <v>37</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>50</v>
@@ -1692,7 +1700,9 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G26" s="2" t="s">
         <v>13</v>
       </c>
@@ -1700,7 +1710,7 @@
         <v>19</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1716,7 +1726,9 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G27" s="2" t="s">
         <v>14</v>
       </c>
@@ -1724,7 +1736,7 @@
         <v>20</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1738,12 +1750,12 @@
         <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>4</v>
@@ -1752,7 +1764,7 @@
         <v>3</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>48</v>
@@ -1770,10 +1782,10 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>44</v>
@@ -1782,10 +1794,10 @@
         <v>45</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1800,7 +1812,9 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G30" s="2" t="s">
         <v>13</v>
       </c>
@@ -1808,7 +1822,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -1824,7 +1838,9 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1832,7 +1848,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1846,23 +1862,23 @@
         <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -1886,7 +1902,7 @@
         <v>65</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -1910,7 +1926,7 @@
         <v>67</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -1934,7 +1950,7 @@
         <v>69</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>54</v>
@@ -1952,7 +1968,9 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G36" s="2" t="s">
         <v>70</v>
       </c>
@@ -1960,7 +1978,7 @@
         <v>71</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1976,7 +1994,9 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G37" s="2" t="s">
         <v>72</v>
       </c>
@@ -1984,7 +2004,7 @@
         <v>73</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -2387,7 +2407,7 @@
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I65" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
-      <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
+      <formula1>"VARCHAR,INT,DECIMAL,DATE,DATETIME"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F65" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
@@ -2434,104 +2454,104 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2581,7 +2601,7 @@
         <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>7</v>

--- a/ha-resource/02_db/DB.xlsx
+++ b/ha-resource/02_db/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F9E9F9-9EE7-48EC-9117-C05F016BF1E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3978205E-FADE-4AFA-955E-1EA86E0B23CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-20130" yWindow="2655" windowWidth="19665" windowHeight="13890" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="TEMPLATE" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$62</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$62</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="99">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -283,17 +279,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MAIL_INFO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メール情報</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メールアドレス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -313,10 +298,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6, 3</t>
   </si>
   <si>
@@ -554,13 +535,17 @@
   </si>
   <si>
     <t>DATETIME</t>
+  </si>
+  <si>
+    <t>SEQ_USER_ID</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,6 +581,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -645,7 +646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,6 +672,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -987,13 +997,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1014,40 +1024,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -1058,25 +1068,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="10"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
@@ -1091,52 +1101,54 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
@@ -1149,18 +1161,20 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
@@ -1174,19 +1188,19 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
@@ -1202,16 +1216,16 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1226,19 +1240,19 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
@@ -1253,16 +1267,16 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1270,29 +1284,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1300,77 +1310,79 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="10"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>49</v>
@@ -1380,177 +1392,177 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="I19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1558,185 +1570,183 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="10"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J26" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1744,85 +1754,79 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -1830,25 +1834,23 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1856,53 +1858,51 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J32" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G33" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -1910,102 +1910,68 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G34" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -2360,56 +2326,14 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L65" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L62" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I65" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I62" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,DATETIME"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F65" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F62" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2437,121 +2361,121 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2589,37 +2513,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">

--- a/ha-resource/02_db/DB.xlsx
+++ b/ha-resource/02_db/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3978205E-FADE-4AFA-955E-1EA86E0B23CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EE50CE-62F7-4A8F-95C7-169241F3E833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20130" yWindow="2655" windowWidth="19665" windowHeight="13890" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="10905" yWindow="900" windowWidth="17190" windowHeight="16125" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="TEMPLATE" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$63</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="110">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -538,6 +538,56 @@
   </si>
   <si>
     <t>SEQ_USER_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント回復トークン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACCOUNT_RECOVERY_TOKEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント回復トークンID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_ACCOUNT_RECOVERY_TOKEN_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOKEN_CREATE_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トークン作成日時</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トークン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOKEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SHA-256でハッシュ化して保存</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -545,7 +595,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,13 +621,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -590,13 +633,13 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -662,25 +705,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,32 +1040,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="36.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="23.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18" style="11" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="36.5" style="11" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -1038,7 +1079,7 @@
       <c r="E1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>78</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1061,297 +1102,297 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>98</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>70</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="10" t="s">
         <v>3</v>
       </c>
       <c r="H12" s="10" t="s">
@@ -1361,255 +1402,255 @@
         <v>70</v>
       </c>
       <c r="J12" s="10"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="5" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="10" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="10" t="s">
@@ -1619,721 +1660,815 @@
         <v>70</v>
       </c>
       <c r="J22" s="10"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L62" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L63" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I62" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I63" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,DATETIME"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F62" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F63" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2360,19 +2495,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>69</v>
       </c>
     </row>
